--- a/data/excel/cpi1997.xlsx
+++ b/data/excel/cpi1997.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1244,7 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="78.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="78.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1254,11 @@
       <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1262,8 +1268,11 @@
       <c r="C2" s="5">
         <v>9.94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1273,8 +1282,11 @@
       <c r="C3" s="8">
         <v>9.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1284,8 +1296,11 @@
       <c r="C4" s="8">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1295,8 +1310,11 @@
       <c r="C5" s="8">
         <v>9.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1306,8 +1324,11 @@
       <c r="C6" s="8">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1317,8 +1338,11 @@
       <c r="C7" s="8">
         <v>9.0299999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1328,8 +1352,11 @@
       <c r="C8" s="8">
         <v>8.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1339,8 +1366,11 @@
       <c r="C9" s="8">
         <v>8.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1350,8 +1380,11 @@
       <c r="C10" s="8">
         <v>8.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1361,8 +1394,11 @@
       <c r="C11" s="8">
         <v>8.61</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1372,8 +1408,11 @@
       <c r="C12" s="8">
         <v>8.61</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1383,8 +1422,11 @@
       <c r="C13" s="8">
         <v>8.2799999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1394,8 +1436,11 @@
       <c r="C14" s="8">
         <v>8.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1405,8 +1450,11 @@
       <c r="C15" s="8">
         <v>8.2200000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1416,8 +1464,11 @@
       <c r="C16" s="8">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1427,8 +1478,11 @@
       <c r="C17" s="8">
         <v>7.61</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1438,8 +1492,11 @@
       <c r="C18" s="8">
         <v>7.61</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1449,8 +1506,11 @@
       <c r="C19" s="8">
         <v>7.28</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1460,8 +1520,11 @@
       <c r="C20" s="8">
         <v>6.97</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1471,8 +1534,11 @@
       <c r="C21" s="8">
         <v>6.66</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1482,8 +1548,11 @@
       <c r="C22" s="8">
         <v>6.57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1493,8 +1562,11 @@
       <c r="C23" s="8">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1504,8 +1576,11 @@
       <c r="C24" s="8">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1515,8 +1590,11 @@
       <c r="C25" s="8">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1526,8 +1604,11 @@
       <c r="C26" s="8">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1537,8 +1618,11 @@
       <c r="C27" s="8">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1548,8 +1632,11 @@
       <c r="C28" s="8">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1559,8 +1646,11 @@
       <c r="C29" s="8">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1570,8 +1660,11 @@
       <c r="C30" s="8">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1581,8 +1674,11 @@
       <c r="C31" s="8">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1592,8 +1688,11 @@
       <c r="C32" s="8">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1603,8 +1702,11 @@
       <c r="C33" s="8">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1614,8 +1716,11 @@
       <c r="C34" s="8">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1625,8 +1730,11 @@
       <c r="C35" s="8">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1636,8 +1744,11 @@
       <c r="C36" s="8">
         <v>4.1399999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1647,8 +1758,11 @@
       <c r="C37" s="8">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1658,8 +1772,11 @@
       <c r="C38" s="8">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1669,8 +1786,11 @@
       <c r="C39" s="8">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1680,8 +1800,11 @@
       <c r="C40" s="8">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1691,8 +1814,11 @@
       <c r="C41" s="8">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1702,8 +1828,11 @@
       <c r="C42" s="8">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1713,8 +1842,11 @@
       <c r="C43" s="8">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -1724,8 +1856,11 @@
       <c r="C44" s="14">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1735,8 +1870,11 @@
       <c r="C45" s="8">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1746,8 +1884,11 @@
       <c r="C46" s="8">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1757,8 +1898,11 @@
       <c r="C47" s="8">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1768,8 +1912,11 @@
       <c r="C48" s="8">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1779,8 +1926,11 @@
       <c r="C49" s="8">
         <v>2.5299999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -1790,8 +1940,11 @@
       <c r="C50" s="8">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1801,8 +1954,11 @@
       <c r="C51" s="8">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -1812,8 +1968,11 @@
       <c r="C52" s="8">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -1822,6 +1981,9 @@
       </c>
       <c r="C53" s="18">
         <v>1.76</v>
+      </c>
+      <c r="D53">
+        <v>1997</v>
       </c>
     </row>
   </sheetData>
